--- a/Tower of Destruction.xlsx
+++ b/Tower of Destruction.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cyoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C964A915-6626-44AF-82C8-94E9CA2A2361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4413EC4E-F0F0-41EC-8EEA-42B9589C5DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5E2D3EF-7584-4C3A-A178-AA9746A53A20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C5E2D3EF-7584-4C3A-A178-AA9746A53A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Paragraphs" sheetId="1" r:id="rId1"/>
-    <sheet name="Actions -  Skill" sheetId="2" r:id="rId2"/>
+    <sheet name="Actions -  Attribute" sheetId="2" r:id="rId2"/>
     <sheet name="Actions -  Equipment" sheetId="7" r:id="rId3"/>
     <sheet name="Actions - Voluntary" sheetId="8" r:id="rId4"/>
     <sheet name="Directions" sheetId="3" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="152">
   <si>
     <t>Paragraph</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Temporary</t>
   </si>
   <si>
-    <t>Actions - Skill</t>
-  </si>
-  <si>
     <t>Actions - Equipment</t>
   </si>
   <si>
@@ -300,6 +297,207 @@
   </si>
   <si>
     <t>190, 322</t>
+  </si>
+  <si>
+    <t>195, 23</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>76, 329</t>
+  </si>
+  <si>
+    <t>Dark Elf Spellcaster</t>
+  </si>
+  <si>
+    <t>1 to 3</t>
+  </si>
+  <si>
+    <t>237, 379</t>
+  </si>
+  <si>
+    <t>91, 62</t>
+  </si>
+  <si>
+    <t>Dice Roll</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>2 dice + 1</t>
+  </si>
+  <si>
+    <t>1 dice / 2</t>
+  </si>
+  <si>
+    <t>226, 174, 373</t>
+  </si>
+  <si>
+    <t>366, 111</t>
+  </si>
+  <si>
+    <t>Gold Piece</t>
+  </si>
+  <si>
+    <t>261, 315, 395</t>
+  </si>
+  <si>
+    <t>Potion of Fire Breath</t>
+  </si>
+  <si>
+    <t>380, 120</t>
+  </si>
+  <si>
+    <t>Elven Weybread</t>
+  </si>
+  <si>
+    <t>256, 316, 196, 196</t>
+  </si>
+  <si>
+    <t>Player Wins First Attack Round</t>
+  </si>
+  <si>
+    <t>Enemy Wins First Attack Round</t>
+  </si>
+  <si>
+    <t>Hit Enemy 3 Times</t>
+  </si>
+  <si>
+    <t>Ran out of Bolts and Enemy Still Alive</t>
+  </si>
+  <si>
+    <t>Test Your Luck - Lucky</t>
+  </si>
+  <si>
+    <t>Test Your Luck - Unlucky</t>
+  </si>
+  <si>
+    <t>184, 121</t>
+  </si>
+  <si>
+    <t>142, 30, 218, 23</t>
+  </si>
+  <si>
+    <t>393, 244, 96</t>
+  </si>
+  <si>
+    <t>82, 23</t>
+  </si>
+  <si>
+    <t>Honour</t>
+  </si>
+  <si>
+    <t>106, 165, 297</t>
+  </si>
+  <si>
+    <t>2 Dice</t>
+  </si>
+  <si>
+    <t>Climbing Gear - 2, No Climbing Gear + 2. ONLY If Diceroll + Climbing Gear Modifiyer &gt; Skill</t>
+  </si>
+  <si>
+    <t>Target Type</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>First Ice Ghost</t>
+  </si>
+  <si>
+    <t>Second Ice Ghost</t>
+  </si>
+  <si>
+    <t>First Strike</t>
+  </si>
+  <si>
+    <t>First Kill</t>
+  </si>
+  <si>
+    <t>Win Battle</t>
+  </si>
+  <si>
+    <t>200, 23, 242</t>
+  </si>
+  <si>
+    <t>GAME OVER</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>11, 83, 101, 23</t>
+  </si>
+  <si>
+    <t>351, 200, 23</t>
+  </si>
+  <si>
+    <t>260, 333, 23</t>
+  </si>
+  <si>
+    <t>Blue Potion</t>
+  </si>
+  <si>
+    <t>Actions - Attribute</t>
+  </si>
+  <si>
+    <t>202, 348</t>
+  </si>
+  <si>
+    <t>2 Dice + Skill</t>
+  </si>
+  <si>
+    <t>Enemy Has Higher Attack Strength</t>
+  </si>
+  <si>
+    <t>Player Has Higher Attack Strength</t>
+  </si>
+  <si>
+    <t>&lt;= player skill</t>
+  </si>
+  <si>
+    <t>&gt; player skill</t>
+  </si>
+  <si>
+    <t>155, 132</t>
+  </si>
+  <si>
+    <t>Silver Brooch</t>
+  </si>
+  <si>
+    <t>196, 23</t>
+  </si>
+  <si>
+    <t>100, 3</t>
+  </si>
+  <si>
+    <t>Need to Know the Value 100</t>
+  </si>
+  <si>
+    <t>339, 139, 28, 85, 372</t>
+  </si>
+  <si>
+    <t>213, 23</t>
+  </si>
+  <si>
+    <t>30, 342, 23</t>
+  </si>
+  <si>
+    <t>18, 379</t>
+  </si>
+  <si>
+    <t>&lt;= Player Skill</t>
+  </si>
+  <si>
+    <t>&gt; Player Skill</t>
+  </si>
+  <si>
+    <t>150, 274, 167, 252</t>
   </si>
 </sst>
 </file>
@@ -335,9 +533,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,15 +853,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4940CC-420F-46BC-8003-7252CF1295E3}">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -674,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1092,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1248,237 +1447,756 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3095,11 +3813,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F482523-6968-4DB3-BB66-D3C77468C677}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,9 +3825,10 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3128,8 +3847,14 @@
       <c r="F1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -3149,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -3169,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -3189,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -3209,7 +3934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -3229,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -3246,10 +3971,10 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>19</v>
       </c>
@@ -3269,7 +3994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -3289,7 +4014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24</v>
       </c>
@@ -3297,7 +4022,7 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -3309,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
@@ -3329,7 +4054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>29</v>
       </c>
@@ -3347,6 +4072,235 @@
       </c>
       <c r="F12">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3357,11 +4311,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E456661C-4E09-4DAD-B179-3A4EC453EF45}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E7"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,10 +4341,10 @@
         <v>51</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,7 +4361,7 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3421,13 +4375,13 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3441,13 +4395,13 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3481,7 +4435,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -3507,9 +4461,229 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
@@ -3521,11 +4695,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000D06F-A000-44E5-B763-C34E7680E234}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E4"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3552,10 +4726,10 @@
         <v>51</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3572,7 +4746,7 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3592,7 +4766,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3612,9 +4786,49 @@
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
@@ -3625,20 +4839,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE73D43-B13A-42CC-ACB3-2846A372CB54}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3646,13 +4863,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3660,7 +4883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3668,7 +4891,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3676,7 +4899,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3684,7 +4907,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3692,7 +4915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3700,7 +4923,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3708,7 +4931,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3716,7 +4939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3724,7 +4947,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3732,7 +4955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3740,7 +4963,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3751,7 +4974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3759,10 +4982,10 @@
         <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3770,7 +4993,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3888,7 +5111,7 @@
         <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,7 +5424,7 @@
         <v>243</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,7 +5435,7 @@
         <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,7 +5454,7 @@
         <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,6 +5563,853 @@
       </c>
       <c r="D79" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>33</v>
+      </c>
+      <c r="B80">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>33</v>
+      </c>
+      <c r="B81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>34</v>
+      </c>
+      <c r="B82">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>34</v>
+      </c>
+      <c r="B83">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>35</v>
+      </c>
+      <c r="B84">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>36</v>
+      </c>
+      <c r="B85">
+        <v>360</v>
+      </c>
+      <c r="E85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>37</v>
+      </c>
+      <c r="B86">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>37</v>
+      </c>
+      <c r="B87">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>38</v>
+      </c>
+      <c r="B88">
+        <v>91</v>
+      </c>
+      <c r="E88" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>38</v>
+      </c>
+      <c r="B89">
+        <v>62</v>
+      </c>
+      <c r="E89" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>39</v>
+      </c>
+      <c r="B90">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>40</v>
+      </c>
+      <c r="B91">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>40</v>
+      </c>
+      <c r="B92">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>40</v>
+      </c>
+      <c r="B93">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>41</v>
+      </c>
+      <c r="B94">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>41</v>
+      </c>
+      <c r="B95">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>42</v>
+      </c>
+      <c r="B96">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>43</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>44</v>
+      </c>
+      <c r="B98">
+        <v>261</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>44</v>
+      </c>
+      <c r="B99">
+        <v>315</v>
+      </c>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>44</v>
+      </c>
+      <c r="B100">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>45</v>
+      </c>
+      <c r="B101">
+        <v>380</v>
+      </c>
+      <c r="F101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>45</v>
+      </c>
+      <c r="B102">
+        <v>120</v>
+      </c>
+      <c r="F102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>46</v>
+      </c>
+      <c r="B103">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>46</v>
+      </c>
+      <c r="B104">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>46</v>
+      </c>
+      <c r="B105">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>47</v>
+      </c>
+      <c r="B106">
+        <v>256</v>
+      </c>
+      <c r="F106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>47</v>
+      </c>
+      <c r="B107">
+        <v>316</v>
+      </c>
+      <c r="F107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>47</v>
+      </c>
+      <c r="B108">
+        <v>196</v>
+      </c>
+      <c r="F108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>47</v>
+      </c>
+      <c r="B109">
+        <v>196</v>
+      </c>
+      <c r="F109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>48</v>
+      </c>
+      <c r="B110">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>48</v>
+      </c>
+      <c r="B111">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>49</v>
+      </c>
+      <c r="B112">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>49</v>
+      </c>
+      <c r="B113">
+        <v>30</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>49</v>
+      </c>
+      <c r="B114">
+        <v>218</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>49</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>50</v>
+      </c>
+      <c r="B116">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>50</v>
+      </c>
+      <c r="B117">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>50</v>
+      </c>
+      <c r="B118">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>51</v>
+      </c>
+      <c r="B119">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>52</v>
+      </c>
+      <c r="B120">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>52</v>
+      </c>
+      <c r="B121">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>53</v>
+      </c>
+      <c r="B122">
+        <v>106</v>
+      </c>
+      <c r="F122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>53</v>
+      </c>
+      <c r="B123">
+        <v>165</v>
+      </c>
+      <c r="F123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>53</v>
+      </c>
+      <c r="B124">
+        <v>297</v>
+      </c>
+      <c r="F124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>54</v>
+      </c>
+      <c r="B125">
+        <v>200</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>54</v>
+      </c>
+      <c r="B126">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>54</v>
+      </c>
+      <c r="B127">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>55</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>56</v>
+      </c>
+      <c r="B129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>56</v>
+      </c>
+      <c r="B130">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>56</v>
+      </c>
+      <c r="B131">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>56</v>
+      </c>
+      <c r="B132">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>57</v>
+      </c>
+      <c r="B133">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>57</v>
+      </c>
+      <c r="B134">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>57</v>
+      </c>
+      <c r="B135">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>58</v>
+      </c>
+      <c r="B136">
+        <v>260</v>
+      </c>
+      <c r="D136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>58</v>
+      </c>
+      <c r="B137">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>58</v>
+      </c>
+      <c r="B138">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>59</v>
+      </c>
+      <c r="B139">
+        <v>202</v>
+      </c>
+      <c r="E139" t="s">
+        <v>135</v>
+      </c>
+      <c r="F139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>59</v>
+      </c>
+      <c r="B140">
+        <v>348</v>
+      </c>
+      <c r="E140" t="s">
+        <v>135</v>
+      </c>
+      <c r="F140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>60</v>
+      </c>
+      <c r="B141">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>60</v>
+      </c>
+      <c r="B142">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>61</v>
+      </c>
+      <c r="B143">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>62</v>
+      </c>
+      <c r="B144" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>63</v>
+      </c>
+      <c r="B145">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>63</v>
+      </c>
+      <c r="B146">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>64</v>
+      </c>
+      <c r="B147">
+        <v>100</v>
+      </c>
+      <c r="F147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>64</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>65</v>
+      </c>
+      <c r="B149">
+        <v>339</v>
+      </c>
+      <c r="D149" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>65</v>
+      </c>
+      <c r="B150">
+        <v>139</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>65</v>
+      </c>
+      <c r="B151">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>65</v>
+      </c>
+      <c r="B152">
+        <v>85</v>
+      </c>
+      <c r="D152" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>65</v>
+      </c>
+      <c r="B153">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>66</v>
+      </c>
+      <c r="B154">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>67</v>
+      </c>
+      <c r="B155">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>67</v>
+      </c>
+      <c r="B156">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>68</v>
+      </c>
+      <c r="B157">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>69</v>
+      </c>
+      <c r="B158">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>70</v>
+      </c>
+      <c r="B159">
+        <v>30</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>70</v>
+      </c>
+      <c r="B160">
+        <v>342</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>70</v>
+      </c>
+      <c r="B161">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>71</v>
+      </c>
+      <c r="B162">
+        <v>18</v>
+      </c>
+      <c r="E162" t="s">
+        <v>116</v>
+      </c>
+      <c r="F162" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>71</v>
+      </c>
+      <c r="B163">
+        <v>379</v>
+      </c>
+      <c r="E163" t="s">
+        <v>116</v>
+      </c>
+      <c r="F163" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>72</v>
+      </c>
+      <c r="B164">
+        <v>150</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>72</v>
+      </c>
+      <c r="B165">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>72</v>
+      </c>
+      <c r="B166">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>72</v>
+      </c>
+      <c r="B167">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>73</v>
+      </c>
+      <c r="B168">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>74</v>
+      </c>
+      <c r="B169">
+        <v>46</v>
+      </c>
+      <c r="D169" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>74</v>
+      </c>
+      <c r="B170">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>75</v>
+      </c>
+      <c r="B171">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4481,19 +6551,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54986CAF-16AE-4339-8EE9-1BE5FF99EFAB}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4501,24 +6572,30 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -4526,24 +6603,81 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4567,7 +6701,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
@@ -4581,12 +6715,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4601,37 +6735,37 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,7 +6800,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
